--- a/tests/databooks/databook_diabetes.xlsx
+++ b/tests/databooks/databook_diabetes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86070F5F-0886-9048-B3E1-65F42AF3DD76}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17370E26-8A60-6648-AD60-F619C1C6107F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18560" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="18560" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" state="hidden" r:id="rId1"/>
@@ -186,6 +186,76 @@
         <r>
           <rPr>
             <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column should be filled with default values used by the model.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time-dependent values always trump assumptions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -197,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -210,60 +280,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Time-dependent values always trump assumptions.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
@@ -857,7 +893,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -900,7 +936,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2068,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2660,13 +2696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>

--- a/tests/databooks/databook_diabetes.xlsx
+++ b/tests/databooks/databook_diabetes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17370E26-8A60-6648-AD60-F619C1C6107F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA645CF1-D858-364C-BC66-3CEEA98BF104}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18560" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="18560" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Flows" sheetId="4" r:id="rId2"/>
-    <sheet name="Stocks" sheetId="5" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId2"/>
+    <sheet name="State Variables" sheetId="5" r:id="rId3"/>
     <sheet name="Metadata" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -2104,7 +2104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2696,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/databook_diabetes.xlsx
+++ b/tests/databooks/databook_diabetes.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA645CF1-D858-364C-BC66-3CEEA98BF104}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602519B-76A2-43A2-B363-97FE187F41E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18560" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="18555" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Population Definitions" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="4" r:id="rId2"/>
     <sheet name="State Variables" sheetId="5" r:id="rId3"/>
-    <sheet name="Metadata" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1495,7 +1494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -1588,15 +1587,6 @@
   </si>
   <si>
     <t>Proportion with HbA1c control</t>
-  </si>
-  <si>
-    <t>data_start</t>
-  </si>
-  <si>
-    <t>data_end</t>
-  </si>
-  <si>
-    <t>data_dt</t>
   </si>
   <si>
     <t>adults</t>
@@ -2073,12 +2063,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,12 +2076,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2105,18 +2095,18 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2139,10 +2129,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2159,7 +2149,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2182,10 +2172,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2202,7 +2192,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2225,10 +2215,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2245,7 +2235,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2268,10 +2258,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -2288,7 +2278,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2311,10 +2301,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -2331,7 +2321,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -2354,10 +2344,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -2374,7 +2364,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -2397,10 +2387,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -2417,7 +2407,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -2440,10 +2430,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2460,7 +2450,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2483,10 +2473,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -2503,7 +2493,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -2526,10 +2516,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -2546,7 +2536,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2569,10 +2559,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -2589,7 +2579,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -2612,10 +2602,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2632,7 +2622,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
@@ -2655,10 +2645,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -2696,21 +2686,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2731,10 +2721,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2751,9 +2741,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2774,10 +2764,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2794,9 +2784,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2817,10 +2807,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2837,9 +2827,9 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2860,10 +2850,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -2880,9 +2870,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -2903,10 +2893,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -2923,9 +2913,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2946,10 +2936,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -2966,9 +2956,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -2989,10 +2979,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -3009,9 +2999,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -3032,10 +3022,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -3052,9 +3042,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -3075,10 +3065,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -3095,9 +3085,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
@@ -3118,10 +3108,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -3138,7 +3128,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -3161,10 +3151,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -3181,7 +3171,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -3204,10 +3194,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -3224,7 +3214,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>23</v>
       </c>
@@ -3247,10 +3237,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -3267,7 +3257,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
@@ -3290,10 +3280,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -3310,7 +3300,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>25</v>
       </c>
@@ -3333,10 +3323,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -3353,7 +3343,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>26</v>
       </c>
@@ -3376,10 +3366,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
@@ -3396,7 +3386,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -3419,10 +3409,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
@@ -3439,7 +3429,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
@@ -3462,10 +3452,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -3482,7 +3472,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -3505,10 +3495,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -3537,41 +3527,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/databooks/databook_diabetes.xlsx
+++ b/tests/databooks/databook_diabetes.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602519B-76A2-43A2-B363-97FE187F41E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50DD01C-7C25-4CE1-9A01-B34BC44D1A54}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="18555" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId2"/>
-    <sheet name="State Variables" sheetId="5" r:id="rId3"/>
+    <sheet name="Data" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -67,20 +66,20 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,20 +109,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -153,20 +152,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -180,77 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column should be filled with default values used by the model.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time-dependent values always trump assumptions.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -266,20 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -288,21 +204,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -318,20 +238,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -361,20 +281,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000011000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000012000000}">
       <text>
         <r>
           <rPr>
@@ -404,20 +324,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000014000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000015000000}">
       <text>
         <r>
           <rPr>
@@ -447,20 +367,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000017000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000018000000}">
       <text>
         <r>
           <rPr>
@@ -490,20 +410,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -533,20 +453,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -576,20 +496,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000020000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000021000000}">
       <text>
         <r>
           <rPr>
@@ -619,20 +539,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000023000000}">
       <text>
         <r>
           <rPr>
@@ -646,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000024000000}">
       <text>
         <r>
           <rPr>
@@ -662,30 +582,20 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000026000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000027000000}">
       <text>
         <r>
           <rPr>
@@ -715,20 +625,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000029000000}">
       <text>
         <r>
           <rPr>
@@ -742,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -758,20 +668,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -785,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -801,20 +711,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -828,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000030000000}">
       <text>
         <r>
           <rPr>
@@ -844,20 +754,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000032000000}">
       <text>
         <r>
           <rPr>
@@ -871,7 +781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000033000000}">
       <text>
         <r>
           <rPr>
@@ -887,20 +797,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000011000000}">
+    <comment ref="A52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000035000000}">
       <text>
         <r>
           <rPr>
@@ -914,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000012000000}">
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000036000000}">
       <text>
         <r>
           <rPr>
@@ -930,20 +840,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000014000000}">
+    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000038000000}">
       <text>
         <r>
           <rPr>
@@ -957,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000015000000}">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000039000000}">
       <text>
         <r>
           <rPr>
@@ -973,20 +883,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000017000000}">
+    <comment ref="A58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1000,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000018000000}">
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1016,20 +926,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001A000000}">
+    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1043,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001B000000}">
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1059,20 +969,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001D000000}">
+    <comment ref="A64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1086,7 +996,77 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001E000000}">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column should be filled with default values used by the model.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time-dependent values always trump assumptions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1082,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001F000000}">
+    <comment ref="A70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1111,25 +1104,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000021000000}">
+          <t xml:space="preserve">This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1145,20 +1134,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000023000000}">
+    <comment ref="A73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000024000000}">
+    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1188,20 +1177,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000026000000}">
+    <comment ref="A76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000027000000}">
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1231,20 +1220,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000029000000}">
+    <comment ref="A79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1258,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002A000000}">
+    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1274,20 +1263,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002C000000}">
+    <comment ref="A82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1301,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002D000000}">
+    <comment ref="C82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1317,20 +1306,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002F000000}">
+    <comment ref="A85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000030000000}">
+    <comment ref="C85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1360,20 +1349,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000032000000}">
+    <comment ref="A88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1387,7 +1376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000033000000}">
+    <comment ref="C88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1403,20 +1392,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000035000000}">
+    <comment ref="A91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1430,7 +1419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000036000000}">
+    <comment ref="C91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1446,20 +1435,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000037000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000038000000}">
+    <comment ref="A94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000039000000}">
+    <comment ref="C94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
       <text>
         <r>
           <rPr>
@@ -2091,603 +2080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <f>IF(SUMPRODUCT(--(E2:H2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <f>IF(SUMPRODUCT(--(E5:H5&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <f>IF(SUMPRODUCT(--(E8:H8&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <f>IF(SUMPRODUCT(--(E11:H11&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
-        <f>IF(SUMPRODUCT(--(E14:H14&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <f>IF(SUMPRODUCT(--(E17:H17&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <f>IF(SUMPRODUCT(--(E20:H20&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <f>IF(SUMPRODUCT(--(E23:H23&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <f>IF(SUMPRODUCT(--(E26:H26&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="3">
-        <f>IF(SUMPRODUCT(--(E29:H29&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="3">
-        <f>IF(SUMPRODUCT(--(E32:H32&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="3">
-        <f>IF(SUMPRODUCT(--(E35:H35&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="3">
-        <f>IF(SUMPRODUCT(--(E38:H38&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B26 B23 B20 B17 B14 B11 B8" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B38 B35 B32" xr:uid="{00000000-0002-0000-0300-000009000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,13 +2912,578 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3">
+        <f>IF(SUMPRODUCT(--(E59:H59&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3">
+        <f>IF(SUMPRODUCT(--(E62:H62&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3">
+        <f>IF(SUMPRODUCT(--(E65:H65&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3">
+        <f>IF(SUMPRODUCT(--(E68:H68&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3">
+        <f>IF(SUMPRODUCT(--(E71:H71&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3">
+        <f>IF(SUMPRODUCT(--(E74:H74&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3">
+        <f>IF(SUMPRODUCT(--(E77:H77&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3">
+        <f>IF(SUMPRODUCT(--(E80:H80&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3">
+        <f>IF(SUMPRODUCT(--(E83:H83&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="3">
+        <f>IF(SUMPRODUCT(--(E86:H86&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="3">
+        <f>IF(SUMPRODUCT(--(E89:H89&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="3">
+        <f>IF(SUMPRODUCT(--(E92:H92&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="3">
+        <f>IF(SUMPRODUCT(--(E95:H95&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B44 B41 B38 B35 B32 B29 B26 B23 B20 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B44 B41 B38 B35 B32 B29 B26 B23 B20 B17 B14 B11 B8 B5 B59 B83 B80 B77 B74 B71 B68 B65" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B56 B53 B50" xr:uid="{00000000-0002-0000-0400-00000F000000}">
       <formula1>"Fraction"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86 B95 B92 B89" xr:uid="{00000000-0002-0000-0300-000009000000}">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
